--- a/项目文档/数据库字段.xlsx
+++ b/项目文档/数据库字段.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\项目文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\githubproject\FancyBBS\项目文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9900" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9900"/>
   </bookViews>
   <sheets>
     <sheet name="用户表(BBSUser)" sheetId="1" r:id="rId1"/>
@@ -459,44 +459,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>外键</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>引用用户表(BUId)]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>datetime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -656,12 +618,49 @@
     <t>游客、会员、管理员判断</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>外键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>引用用户表(BUId)]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -672,15 +671,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -754,28 +744,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1060,9 +1050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1188,7 +1176,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>60</v>
@@ -1230,7 +1218,7 @@
         <v>21</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
@@ -1241,7 +1229,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>28</v>
@@ -1309,7 +1297,7 @@
         <v>64</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>12</v>
@@ -1380,7 +1368,7 @@
         <v>67</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>42</v>
@@ -1401,7 +1389,7 @@
         <v>68</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>42</v>
@@ -1425,9 +1413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1442,7 +1428,7 @@
   <sheetData>
     <row r="3" spans="2:10" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -1501,7 +1487,7 @@
         <v>44</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>50</v>
@@ -1533,7 +1519,7 @@
         <v>69</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>24</v>
@@ -1555,10 +1541,10 @@
         <v>46</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>51</v>
@@ -1571,7 +1557,7 @@
         <v>53</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
@@ -1585,7 +1571,7 @@
         <v>70</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>24</v>
@@ -1596,7 +1582,7 @@
         <v>53</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
@@ -1610,7 +1596,7 @@
         <v>71</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>55</v>
@@ -1631,7 +1617,7 @@
         <v>72</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>55</v>
@@ -1649,10 +1635,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>32</v>
@@ -1670,10 +1656,10 @@
         <v>41</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>32</v>
@@ -1744,9 +1730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1938,7 +1922,7 @@
         <v>15</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
@@ -1978,7 +1962,7 @@
         <v>28</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1986,7 +1970,7 @@
         <v>15</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
@@ -2000,7 +1984,7 @@
         <v>89</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>12</v>
@@ -2009,7 +1993,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
@@ -2017,7 +2001,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>90</v>
@@ -2070,13 +2054,13 @@
         <v>28</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
@@ -2087,7 +2071,7 @@
         <v>40</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>28</v>
@@ -2108,7 +2092,7 @@
         <v>41</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>28</v>
@@ -2160,9 +2144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2177,7 +2159,7 @@
   <sheetData>
     <row r="3" spans="2:10" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -2233,10 +2215,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>50</v>
@@ -2262,10 +2244,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>28</v>
@@ -2281,7 +2263,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
@@ -2289,10 +2271,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>28</v>
@@ -2316,10 +2298,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>28</v>
@@ -2343,10 +2325,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>28</v>
@@ -2366,16 +2348,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -2383,7 +2365,7 @@
         <v>15</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
@@ -2394,7 +2376,7 @@
         <v>40</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>28</v>
@@ -2415,7 +2397,7 @@
         <v>41</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>28</v>

--- a/项目文档/数据库字段.xlsx
+++ b/项目文档/数据库字段.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\githubproject\FancyBBS\项目文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\项目文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="用户表(BBSUser)" sheetId="1" r:id="rId1"/>
@@ -459,6 +459,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>外键</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>引用用户表(BUId)]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>datetime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -618,49 +656,12 @@
     <t>游客、会员、管理员判断</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>外键</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>引用用户表(BUId)]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -671,6 +672,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -744,28 +754,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1050,7 +1060,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1176,7 +1188,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>60</v>
@@ -1218,7 +1230,7 @@
         <v>21</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
@@ -1229,7 +1241,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>28</v>
@@ -1297,7 +1309,7 @@
         <v>64</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>12</v>
@@ -1368,7 +1380,7 @@
         <v>67</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>42</v>
@@ -1389,7 +1401,7 @@
         <v>68</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>42</v>
@@ -1413,7 +1425,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1428,7 +1442,7 @@
   <sheetData>
     <row r="3" spans="2:10" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -1487,7 +1501,7 @@
         <v>44</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>50</v>
@@ -1519,7 +1533,7 @@
         <v>69</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>24</v>
@@ -1541,10 +1555,10 @@
         <v>46</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>51</v>
@@ -1557,7 +1571,7 @@
         <v>53</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
@@ -1571,7 +1585,7 @@
         <v>70</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>24</v>
@@ -1582,7 +1596,7 @@
         <v>53</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
@@ -1596,7 +1610,7 @@
         <v>71</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>55</v>
@@ -1617,7 +1631,7 @@
         <v>72</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>55</v>
@@ -1635,10 +1649,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>32</v>
@@ -1656,10 +1670,10 @@
         <v>41</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>32</v>
@@ -1730,7 +1744,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1922,7 +1938,7 @@
         <v>15</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
@@ -1962,7 +1978,7 @@
         <v>28</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1970,7 +1986,7 @@
         <v>15</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
@@ -1984,7 +2000,7 @@
         <v>89</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>12</v>
@@ -1993,7 +2009,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
@@ -2001,7 +2017,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>90</v>
@@ -2054,13 +2070,13 @@
         <v>28</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
@@ -2071,7 +2087,7 @@
         <v>40</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>28</v>
@@ -2092,7 +2108,7 @@
         <v>41</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>28</v>
@@ -2144,7 +2160,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2159,7 +2177,7 @@
   <sheetData>
     <row r="3" spans="2:10" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -2215,10 +2233,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>50</v>
@@ -2244,10 +2262,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>28</v>
@@ -2263,7 +2281,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
@@ -2271,10 +2289,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>28</v>
@@ -2298,10 +2316,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>28</v>
@@ -2325,10 +2343,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>28</v>
@@ -2348,16 +2366,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -2365,7 +2383,7 @@
         <v>15</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
@@ -2376,7 +2394,7 @@
         <v>40</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>28</v>
@@ -2397,7 +2415,7 @@
         <v>41</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>28</v>

--- a/项目文档/数据库字段.xlsx
+++ b/项目文档/数据库字段.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\项目文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\githubproject\FancyBBS\项目文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -459,44 +459,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>外键</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>引用用户表(BUId)]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>datetime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -656,12 +618,49 @@
     <t>游客、会员、管理员判断</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>外键</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>引用用户表(BUId)]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -672,15 +671,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
@@ -754,28 +744,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1060,9 +1050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1188,7 +1176,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>60</v>
@@ -1230,7 +1218,7 @@
         <v>21</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
@@ -1241,7 +1229,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>28</v>
@@ -1309,7 +1297,7 @@
         <v>64</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>12</v>
@@ -1380,7 +1368,7 @@
         <v>67</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>42</v>
@@ -1401,7 +1389,7 @@
         <v>68</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>42</v>
@@ -1425,9 +1413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1442,7 +1428,7 @@
   <sheetData>
     <row r="3" spans="2:10" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -1501,7 +1487,7 @@
         <v>44</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>50</v>
@@ -1533,7 +1519,7 @@
         <v>69</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>24</v>
@@ -1555,10 +1541,10 @@
         <v>46</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>51</v>
@@ -1571,7 +1557,7 @@
         <v>53</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
@@ -1585,7 +1571,7 @@
         <v>70</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>24</v>
@@ -1596,7 +1582,7 @@
         <v>53</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
@@ -1610,7 +1596,7 @@
         <v>71</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>55</v>
@@ -1631,7 +1617,7 @@
         <v>72</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>55</v>
@@ -1649,10 +1635,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>32</v>
@@ -1670,10 +1656,10 @@
         <v>41</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>32</v>
@@ -1744,9 +1730,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1938,7 +1922,7 @@
         <v>15</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
@@ -1978,7 +1962,7 @@
         <v>28</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1986,7 +1970,7 @@
         <v>15</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
@@ -2000,7 +1984,7 @@
         <v>89</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>12</v>
@@ -2009,7 +1993,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
@@ -2017,7 +2001,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>90</v>
@@ -2070,13 +2054,13 @@
         <v>28</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
@@ -2087,7 +2071,7 @@
         <v>40</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>28</v>
@@ -2108,7 +2092,7 @@
         <v>41</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>28</v>
@@ -2160,9 +2144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2177,7 +2159,7 @@
   <sheetData>
     <row r="3" spans="2:10" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -2233,10 +2215,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>50</v>
@@ -2262,10 +2244,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>28</v>
@@ -2281,7 +2263,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
@@ -2289,10 +2271,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>28</v>
@@ -2316,10 +2298,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>28</v>
@@ -2343,10 +2325,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>28</v>
@@ -2366,16 +2348,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -2383,7 +2365,7 @@
         <v>15</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
@@ -2394,7 +2376,7 @@
         <v>40</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>28</v>
@@ -2415,7 +2397,7 @@
         <v>41</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>28</v>

--- a/项目文档/数据库字段.xlsx
+++ b/项目文档/数据库字段.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9900" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9900"/>
   </bookViews>
   <sheets>
     <sheet name="用户表(BBSUser)" sheetId="1" r:id="rId1"/>
@@ -1050,7 +1050,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1413,7 +1415,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>

--- a/项目文档/数据库字段.xlsx
+++ b/项目文档/数据库字段.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\githubproject\FancyBBS\项目文档\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9900" activeTab="1"/>
+    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="17235" windowHeight="8580"/>
   </bookViews>
   <sheets>
     <sheet name="用户表(BBSUser)" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,8 @@
     <sheet name="发帖表(BBSTopic)" sheetId="3" r:id="rId3"/>
     <sheet name="跟帖表(BBSReply)" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:J19"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -271,31 +267,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BUPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUNickname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUPhoto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUSex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUGrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BURegistrationdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUPoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -559,10 +531,6 @@
   </si>
   <si>
     <t>用户密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUEmail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -653,6 +621,34 @@
       </rPr>
       <t>引用用户表(BUId)]</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUPassword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUNickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUEmail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUPhoto</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUSex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUGrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BUPoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1050,7 +1046,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1176,10 +1174,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>28</v>
@@ -1204,7 +1202,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>28</v>
@@ -1218,7 +1216,7 @@
         <v>21</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
@@ -1229,7 +1227,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>28</v>
@@ -1250,7 +1248,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>35</v>
@@ -1273,7 +1271,7 @@
         <v>19</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>34</v>
@@ -1294,10 +1292,10 @@
         <v>11</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>12</v>
@@ -1319,7 +1317,7 @@
         <v>22</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>29</v>
@@ -1342,7 +1340,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>36</v>
@@ -1365,10 +1363,10 @@
         <v>40</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>42</v>
@@ -1386,10 +1384,10 @@
         <v>41</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>42</v>
@@ -1413,7 +1411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1428,7 +1426,7 @@
   <sheetData>
     <row r="3" spans="2:10" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="11" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -1487,7 +1485,7 @@
         <v>44</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>50</v>
@@ -1516,10 +1514,10 @@
         <v>45</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>24</v>
@@ -1541,10 +1539,10 @@
         <v>46</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>51</v>
@@ -1557,7 +1555,7 @@
         <v>53</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
@@ -1568,10 +1566,10 @@
         <v>47</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>24</v>
@@ -1582,7 +1580,7 @@
         <v>53</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
@@ -1593,10 +1591,10 @@
         <v>48</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>55</v>
@@ -1614,10 +1612,10 @@
         <v>49</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>55</v>
@@ -1635,10 +1633,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>32</v>
@@ -1656,10 +1654,10 @@
         <v>41</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>32</v>
@@ -1801,10 +1799,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>50</v>
@@ -1830,10 +1828,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>28</v>
@@ -1849,7 +1847,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
@@ -1857,10 +1855,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>28</v>
@@ -1876,7 +1874,7 @@
         <v>15</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
@@ -1884,10 +1882,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>28</v>
@@ -1905,10 +1903,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>28</v>
@@ -1922,7 +1920,7 @@
         <v>15</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
@@ -1930,10 +1928,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>28</v>
@@ -1953,16 +1951,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1970,7 +1968,7 @@
         <v>15</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
@@ -1978,13 +1976,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>12</v>
@@ -1993,7 +1991,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
@@ -2001,10 +1999,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>28</v>
@@ -2022,10 +2020,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>28</v>
@@ -2037,7 +2035,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
@@ -2045,22 +2043,22 @@
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
@@ -2071,7 +2069,7 @@
         <v>40</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>28</v>
@@ -2092,7 +2090,7 @@
         <v>41</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>28</v>
@@ -2159,7 +2157,7 @@
   <sheetData>
     <row r="3" spans="2:10" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="11" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -2215,10 +2213,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>50</v>
@@ -2244,10 +2242,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>28</v>
@@ -2263,7 +2261,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
@@ -2271,10 +2269,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>28</v>
@@ -2290,7 +2288,7 @@
         <v>15</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
@@ -2298,10 +2296,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>28</v>
@@ -2317,7 +2315,7 @@
         <v>15</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
@@ -2325,10 +2323,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>28</v>
@@ -2348,16 +2346,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -2365,7 +2363,7 @@
         <v>15</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
@@ -2376,7 +2374,7 @@
         <v>40</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>28</v>
@@ -2397,7 +2395,7 @@
         <v>41</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>28</v>

--- a/项目文档/数据库字段.xlsx
+++ b/项目文档/数据库字段.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9900" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9900"/>
   </bookViews>
   <sheets>
-    <sheet name="用户表(BBSUser)" sheetId="1" r:id="rId1"/>
-    <sheet name="版块表(BBSSession)" sheetId="2" r:id="rId2"/>
-    <sheet name="发帖表(BBSTopic)" sheetId="3" r:id="rId3"/>
-    <sheet name="跟帖表(BBSReply)" sheetId="4" r:id="rId4"/>
+    <sheet name="用户表(user)" sheetId="1" r:id="rId1"/>
+    <sheet name="版块表(session)" sheetId="2" r:id="rId2"/>
+    <sheet name="发帖表(topic)" sheetId="3" r:id="rId3"/>
+    <sheet name="跟帖表(reply)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="121">
   <si>
     <t>字段名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,10 +233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>long</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -253,76 +249,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>发帖表
-BBSTopic</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户信息表
-BBSUser</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUAccount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUPassword</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUNickname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUPhoto</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUSex</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUGrade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BURegistrationdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUPoint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUBlank1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BUBlank2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSProfile</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSTopicCount </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSClickCoount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发帖ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -360,50 +286,6 @@
   </si>
   <si>
     <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BTId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BTSId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BTUId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BTReplyCount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">BTTopic </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BTTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BTFlag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">BTClickCount </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BTLastReplyUseID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BTLastReplayTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BTContents</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -475,23 +357,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>跟帖表
-BBSReply</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BRId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>回复主贴ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BRTId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>所在版块ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -504,23 +373,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BRUId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>回帖内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>回帖时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BRContent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BRTime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -562,60 +419,101 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BUEmail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSMasterId</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSBlank1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BSBlank2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BTBlank1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BTBlank2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BRBlank1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BRBlank2</t>
+    <t>跟帖ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游客、会员、管理员判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户信息表
+user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nickname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>photo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>registrationdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>point</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blank_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blank_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>版块表
-BBSSession</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跟帖ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>游客、会员、管理员判断</t>
+session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>masterId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>topicCount </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clickCoount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blank_2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -651,8 +549,70 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>引用用户表(BUId)]</t>
+      <t>引用用户表(id)]</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发帖表
+topic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>replyCount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">topic </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>contents</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">clickCount </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastReplyUseID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lastReplayTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟帖表
+reply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fancybbs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,7 +691,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -767,6 +727,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1048,9 +1011,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:J17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1062,9 +1027,17 @@
     <col min="10" max="10" width="34.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="3" spans="1:10" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="11" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -1075,7 +1048,7 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
     </row>
-    <row r="4" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -1086,7 +1059,7 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="2:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="5" t="s">
         <v>4</v>
       </c>
@@ -1115,7 +1088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B6" s="2">
         <v>1</v>
       </c>
@@ -1123,13 +1096,13 @@
         <v>26</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>16</v>
@@ -1144,7 +1117,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B7" s="2">
         <v>2</v>
       </c>
@@ -1152,7 +1125,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>28</v>
@@ -1171,15 +1144,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B8" s="2">
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>28</v>
@@ -1196,7 +1169,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B9" s="2">
         <v>4</v>
       </c>
@@ -1204,7 +1177,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>28</v>
@@ -1218,10 +1191,10 @@
         <v>21</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B10" s="2">
         <v>5</v>
       </c>
@@ -1229,7 +1202,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>28</v>
@@ -1242,7 +1215,7 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B11" s="2">
         <v>6</v>
       </c>
@@ -1250,7 +1223,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>62</v>
+        <v>91</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>35</v>
@@ -1265,7 +1238,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B12" s="2">
         <v>7</v>
       </c>
@@ -1273,7 +1246,7 @@
         <v>19</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>34</v>
@@ -1286,7 +1259,7 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B13" s="2">
         <v>8</v>
       </c>
@@ -1294,10 +1267,10 @@
         <v>11</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>12</v>
@@ -1311,7 +1284,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B14" s="2">
         <v>9</v>
       </c>
@@ -1319,7 +1292,7 @@
         <v>22</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>65</v>
+        <v>94</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>29</v>
@@ -1334,7 +1307,7 @@
       </c>
       <c r="J14" s="2"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B15" s="2">
         <v>10</v>
       </c>
@@ -1342,7 +1315,7 @@
         <v>31</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>36</v>
@@ -1357,7 +1330,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B16" s="2">
         <v>11</v>
       </c>
@@ -1365,10 +1338,10 @@
         <v>40</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>67</v>
+        <v>96</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>42</v>
@@ -1386,10 +1359,10 @@
         <v>41</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>42</v>
@@ -1400,8 +1373,9 @@
       <c r="J17" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="B3:J4"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1413,7 +1387,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1428,7 +1404,7 @@
   <sheetData>
     <row r="3" spans="2:10" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="11" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -1487,19 +1463,19 @@
         <v>44</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="H6" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>15</v>
@@ -1516,10 +1492,10 @@
         <v>45</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>69</v>
+        <v>99</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>24</v>
@@ -1527,10 +1503,10 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
@@ -1541,23 +1517,23 @@
         <v>46</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
@@ -1568,10 +1544,10 @@
         <v>47</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>70</v>
+        <v>101</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>24</v>
@@ -1579,10 +1555,10 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
@@ -1593,13 +1569,13 @@
         <v>48</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1614,13 +1590,13 @@
         <v>49</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1635,10 +1611,10 @@
         <v>40</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>32</v>
@@ -1656,10 +1632,10 @@
         <v>41</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>32</v>
@@ -1730,7 +1706,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D18" sqref="D17:D18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1745,7 +1723,7 @@
   <sheetData>
     <row r="3" spans="2:10" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="11" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -1801,16 +1779,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>16</v>
@@ -1830,16 +1808,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>16</v>
@@ -1849,7 +1827,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.15">
@@ -1857,16 +1835,16 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>16</v>
@@ -1876,7 +1854,7 @@
         <v>15</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
@@ -1884,10 +1862,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>28</v>
@@ -1905,10 +1883,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>28</v>
@@ -1922,7 +1900,7 @@
         <v>15</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.15">
@@ -1930,10 +1908,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>28</v>
@@ -1953,16 +1931,16 @@
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1970,7 +1948,7 @@
         <v>15</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.15">
@@ -1978,13 +1956,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>12</v>
@@ -1993,7 +1971,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.15">
@@ -2001,10 +1979,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>28</v>
@@ -2022,22 +2000,22 @@
         <v>10</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="8" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.15">
@@ -2045,22 +2023,22 @@
         <v>11</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.15">
@@ -2071,7 +2049,7 @@
         <v>40</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>28</v>
@@ -2092,7 +2070,7 @@
         <v>41</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>28</v>
@@ -2137,6 +2115,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2144,7 +2123,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D12:D13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2159,7 +2140,7 @@
   <sheetData>
     <row r="3" spans="2:10" s="6" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="11" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
@@ -2215,16 +2196,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>50</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>16</v>
@@ -2244,16 +2225,16 @@
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>16</v>
@@ -2263,7 +2244,7 @@
         <v>15</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>112</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
@@ -2271,10 +2252,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>28</v>
@@ -2290,7 +2271,7 @@
         <v>15</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.15">
@@ -2298,16 +2279,16 @@
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>16</v>
@@ -2317,7 +2298,7 @@
         <v>15</v>
       </c>
       <c r="J9" s="8" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.15">
@@ -2325,10 +2306,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>28</v>
@@ -2348,16 +2329,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>28</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -2365,7 +2346,7 @@
         <v>15</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.15">
@@ -2376,7 +2357,7 @@
         <v>40</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>28</v>
@@ -2397,7 +2378,7 @@
         <v>41</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>28</v>
